--- a/Uebung_SPCundVarianzanalyse/Benjamin_Hamm.xlsx
+++ b/Uebung_SPCundVarianzanalyse/Benjamin_Hamm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammb\Documents\Uni\20_WS_MA\DAT\DataScience\Uebung_SPCundVarianzanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84B934D6-B1E8-40BE-B778-245186F915D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3119B9-0B4A-4E7E-A11C-7BA346ED55B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656F1814-DAF6-4B4B-9937-8DEC6DC0A0AF}"/>
   </bookViews>
@@ -383,59 +383,59 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>124.99</v>
+        <v>35.99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>125.82</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>126.46</v>
+        <v>37.46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>125.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>125.62</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>125.62</v>
+        <v>36.619999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>126.03</v>
+        <v>37.03</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>125.24</v>
+        <v>36.24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>124.77</v>
+        <v>35.770000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>124.15</v>
+        <v>35.15</v>
       </c>
     </row>
   </sheetData>

--- a/Uebung_SPCundVarianzanalyse/Benjamin_Hamm.xlsx
+++ b/Uebung_SPCundVarianzanalyse/Benjamin_Hamm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hammb\Documents\Uni\20_WS_MA\DAT\DataScience\Uebung_SPCundVarianzanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3119B9-0B4A-4E7E-A11C-7BA346ED55B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3A4E7-4A1E-4504-865A-D0D7DDC40EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{656F1814-DAF6-4B4B-9937-8DEC6DC0A0AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{656F1814-DAF6-4B4B-9937-8DEC6DC0A0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -383,59 +383,59 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>35.99</v>
+        <v>17.995000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>36.82</v>
+        <v>18.41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>37.46</v>
+        <v>18.73</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>36.840000000000003</v>
+        <v>18.420000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>36.619999999999997</v>
+        <v>18.309999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>36.619999999999997</v>
+        <v>18.309999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>37.03</v>
+        <v>18.515000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>36.24</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>35.770000000000003</v>
+        <v>17.885000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>35.15</v>
+        <v>17.574999999999999</v>
       </c>
     </row>
   </sheetData>
